--- a/loaded_influencer_data/43canrevieww/43canrevieww_video.xlsx
+++ b/loaded_influencer_data/43canrevieww/43canrevieww_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,316 +506,316 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@43canrevieww/video/7488531138940587270</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>27700</v>
+      </c>
+      <c r="C2" t="n">
+        <v>201</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>154</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>사무실 사람들은 괜찮습니다.#TeeLa</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7545126353790614</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7256317689530686</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.02888086642599278</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.555956678700361</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@43canrevieww/video/7483162283611344135</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>127800</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>114</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>6</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>100</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>너무 사랑해#lorealparis #daugoinauloreal</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="H3" t="n">
         <v>0.09389671361502347</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I3" t="n">
         <v>0.0892018779342723</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.004694835680751174</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L3" t="n">
         <v>0.0782472613458529</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@43canrevieww/video/7482276856780115208</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>64099</v>
-      </c>
-      <c r="C3" t="n">
-        <v>675</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B4" t="n">
+        <v>64200</v>
+      </c>
+      <c r="C4" t="n">
+        <v>676</v>
+      </c>
+      <c r="D4" t="n">
         <v>11</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>101</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>102</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>나는 매일 이 차를 마신다. #healthy #trathaomoc #tracothu #trashantuyet #trashantuyetcothu #trasach</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>1.070219504204434</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.053058550055383</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.01716095414905069</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.1575687608231018</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="H4" t="n">
+        <v>1.070093457943925</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.052959501557633</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.01713395638629284</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1588785046728972</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@43canrevieww/video/7480102492643069202</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>68300</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1202</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>14</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>108</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>냄새가 오래 지속됩니다.#eherbvietnam #bodymist</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>1.780380673499268</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>1.759882869692533</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>0.02049780380673499</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L5" t="n">
         <v>0.1581259150805271</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@43canrevieww/video/7479743599375093010</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>40100</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1009</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>170</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>바디 로션#benew #bodylotion #lamdep</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>2.528678304239401</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I6" t="n">
         <v>2.516209476309227</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.01246882793017456</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L6" t="n">
         <v>0.4239401496259352</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@43canrevieww/video/7479093680629009682</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>92800</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1430</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="B7" t="n">
+        <v>93500</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1435</v>
+      </c>
+      <c r="D7" t="n">
         <v>9</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>106</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>좋아하는 페이셜 클렌저#cerave #suaruamat @CeraVe Việt Nam</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>1.550646551724138</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.540948275862069</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.009698275862068966</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.1142241379310345</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="H7" t="n">
+        <v>1.544385026737968</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.53475935828877</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.009625668449197862</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.1133689839572193</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@43canrevieww/video/7478993727965367560</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
         <v>43800</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1042</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>101</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>경량 흡수제 위생 냅킨#cottonday</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2.388127853881278</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.378995433789954</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.0091324200913242</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.2305936073059361</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@43canrevieww/video/7476035301983440136</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>30100</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2247</v>
       </c>
       <c r="D8" t="n">
         <v>4</v>
@@ -824,478 +824,528 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>101</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>경량 흡수제 위생 냅킨#cottonday</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2.388127853881278</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.378995433789954</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0091324200913242</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.2305936073059361</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@43canrevieww/video/7476035301983440136</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>30100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2247</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>109</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>경량 흡수제 위생 냅킨#cottonday</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>아름다운 마스카라</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>7.478405315614618</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I9" t="n">
         <v>7.465116279069768</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>0.0132890365448505</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L9" t="n">
         <v>0.3621262458471761</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@43canrevieww/video/7473324980390972680</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>46600</v>
-      </c>
-      <c r="C9" t="n">
-        <v>615</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="B10" t="n">
+        <v>46700</v>
+      </c>
+      <c r="C10" t="n">
+        <v>616</v>
+      </c>
+      <c r="D10" t="n">
         <v>6</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>106</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>여기서 최고.</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>1.332618025751073</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.319742489270386</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.0128755364806867</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.2274678111587983</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="H10" t="n">
+        <v>1.331905781584582</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.319057815845824</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.01284796573875803</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.2269807280513919</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@43canrevieww/video/7473017914036096274</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>23400</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>678</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>16</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>101</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>점심</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>2.965811965811966</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>2.897435897435897</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.06837606837606838</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L11" t="n">
         <v>0.4316239316239316</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@43canrevieww/video/7471148350746742023</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>23100</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>156</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>6</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>105</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>립밤</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>0.7012987012987013</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>0.6753246753246753</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.02597402597402598</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L12" t="n">
         <v>0.4545454545454545</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@43canrevieww/video/7469983505867443474</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B13" t="n">
         <v>33700</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C13" t="n">
         <v>1133</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D13" t="n">
         <v>10</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>110</v>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
         <v>3.391691394658754</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>3.362017804154303</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.02967359050445104</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L13" t="n">
         <v>0.3264094955489614</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@43canrevieww/video/7067147826534436122</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B14" t="n">
         <v>54600</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C14" t="n">
         <v>270</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>102</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>mn 참조를 위한 Aha#review #reviewlamdep #reviewskincare #skincare</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>0.4945054945054945</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I14" t="n">
         <v>0.4945054945054945</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>0.1868131868131868</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2022-2-21</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@43canrevieww/video/7022968711543819547</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B15" t="n">
         <v>25400</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C15" t="n">
         <v>180</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D15" t="n">
         <v>3</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>110</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>젤 dng m 비타민 트리 워터 젤 나는 출신#skincare #thuyhanhskincare #dadau #dadaumun #vitamintree</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>0.7204724409448818</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>0.7086614173228346</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.01181102362204724</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L15" t="n">
         <v>0.4330708661417323</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2021-10-25</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@43canrevieww/video/7016561658604703003</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B16" t="n">
         <v>17800</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C16" t="n">
         <v>161</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>107</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>BhA Obagi P1 사용 시 중요한 참고 사항#bhaobagi #BHa #obagi #skincare #beauty #toner #trịmụn #ba #luuy</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>0.9044943820224719</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>0.9044943820224719</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>0.601123595505618</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2021-10-8</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@43canrevieww/video/7016269733536353563</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B17" t="n">
         <v>23200</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C17" t="n">
         <v>179</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D17" t="n">
         <v>2</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>115</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>건성 피부를 위한 기본 스킨케어#skincare #dakho #beauty #xuhuongtiktok #chamsocda</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>0.7801724137931034</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I17" t="n">
         <v>0.771551724137931</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.008620689655172414</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L17" t="n">
         <v>0.4956896551724138</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2021-10-7</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@43canrevieww/video/7015581217529646363</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B18" t="n">
         <v>33900</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C18" t="n">
         <v>180</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>114</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>지성 피부, 여드름을 위한 기본 스킨케어#skincare #dadaumun #xuhuongtiktok #beauty</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>0.5309734513274336</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I18" t="n">
         <v>0.5309734513274336</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>0.3362831858407079</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2021-10-5</t>
         </is>
